--- a/informe/area_code.xlsx
+++ b/informe/area_code.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\test-arbol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\chatbot-twilio\informe\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$302</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="315">
   <si>
     <t>CÓDIGO DE AREA</t>
   </si>
@@ -958,6 +961,12 @@
   </si>
   <si>
     <t>Garin</t>
+  </si>
+  <si>
+    <t>Neuquén</t>
+  </si>
+  <si>
+    <t>Córdoba</t>
   </si>
 </sst>
 </file>
@@ -1322,10 +1331,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:C302"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:C241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1345,7 +1355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>11</v>
       </c>
@@ -1356,7 +1366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>220</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>221</v>
       </c>
@@ -1378,7 +1388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>223</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>230</v>
       </c>
@@ -1400,7 +1410,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>236</v>
       </c>
@@ -1411,7 +1421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>237</v>
       </c>
@@ -1422,7 +1432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>249</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>260</v>
       </c>
@@ -1444,7 +1454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>261</v>
       </c>
@@ -1455,7 +1465,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>263</v>
       </c>
@@ -1466,7 +1476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>264</v>
       </c>
@@ -1477,7 +1487,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>266</v>
       </c>
@@ -1488,7 +1498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>280</v>
       </c>
@@ -1499,7 +1509,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>291</v>
       </c>
@@ -1510,7 +1520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>294</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>297</v>
       </c>
@@ -1532,7 +1542,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>298</v>
       </c>
@@ -1543,7 +1553,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>299</v>
       </c>
@@ -1551,10 +1561,10 @@
         <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>336</v>
       </c>
@@ -1565,7 +1575,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>341</v>
       </c>
@@ -1576,7 +1586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>342</v>
       </c>
@@ -1587,7 +1597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>343</v>
       </c>
@@ -1598,7 +1608,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>345</v>
       </c>
@@ -1609,7 +1619,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>348</v>
       </c>
@@ -1628,7 +1638,7 @@
         <v>201</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -1639,7 +1649,7 @@
         <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1650,10 +1660,10 @@
         <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>362</v>
       </c>
@@ -1664,7 +1674,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>364</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>370</v>
       </c>
@@ -1686,7 +1696,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>376</v>
       </c>
@@ -1697,7 +1707,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>379</v>
       </c>
@@ -1708,7 +1718,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>380</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>381</v>
       </c>
@@ -1730,7 +1740,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>383</v>
       </c>
@@ -1741,7 +1751,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>385</v>
       </c>
@@ -1752,7 +1762,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>387</v>
       </c>
@@ -1763,7 +1773,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>388</v>
       </c>
@@ -1774,7 +1784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2202</v>
       </c>
@@ -1785,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2221</v>
       </c>
@@ -1796,7 +1806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2223</v>
       </c>
@@ -1807,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2224</v>
       </c>
@@ -1818,7 +1828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2225</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2226</v>
       </c>
@@ -1840,7 +1850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2227</v>
       </c>
@@ -1851,7 +1861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2229</v>
       </c>
@@ -1862,7 +1872,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2241</v>
       </c>
@@ -1873,7 +1883,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2242</v>
       </c>
@@ -1884,7 +1894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2243</v>
       </c>
@@ -1895,7 +1905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2244</v>
       </c>
@@ -1906,7 +1916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2245</v>
       </c>
@@ -1917,7 +1927,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2246</v>
       </c>
@@ -1928,7 +1938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2252</v>
       </c>
@@ -1939,7 +1949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2254</v>
       </c>
@@ -1950,7 +1960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2255</v>
       </c>
@@ -1961,7 +1971,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2257</v>
       </c>
@@ -1972,7 +1982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2261</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2262</v>
       </c>
@@ -1994,7 +2004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>2264</v>
       </c>
@@ -2005,7 +2015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2265</v>
       </c>
@@ -2016,7 +2026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2266</v>
       </c>
@@ -2027,7 +2037,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2267</v>
       </c>
@@ -2038,7 +2048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2268</v>
       </c>
@@ -2049,7 +2059,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2271</v>
       </c>
@@ -2060,7 +2070,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2272</v>
       </c>
@@ -2071,7 +2081,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2273</v>
       </c>
@@ -2082,7 +2092,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2274</v>
       </c>
@@ -2093,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2281</v>
       </c>
@@ -2104,7 +2114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2283</v>
       </c>
@@ -2115,7 +2125,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2284</v>
       </c>
@@ -2126,7 +2136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2285</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2286</v>
       </c>
@@ -2148,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2291</v>
       </c>
@@ -2159,7 +2169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2292</v>
       </c>
@@ -2170,7 +2180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2296</v>
       </c>
@@ -2181,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2297</v>
       </c>
@@ -2192,7 +2202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2302</v>
       </c>
@@ -2203,7 +2213,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2314</v>
       </c>
@@ -2214,7 +2224,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2316</v>
       </c>
@@ -2225,7 +2235,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2317</v>
       </c>
@@ -2236,7 +2246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2320</v>
       </c>
@@ -2247,7 +2257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2323</v>
       </c>
@@ -2258,7 +2268,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2324</v>
       </c>
@@ -2269,7 +2279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2325</v>
       </c>
@@ -2280,7 +2290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2326</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2331</v>
       </c>
@@ -2302,7 +2312,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2333</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2334</v>
       </c>
@@ -2324,7 +2334,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2335</v>
       </c>
@@ -2343,10 +2353,10 @@
         <v>243</v>
       </c>
       <c r="C92" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2337</v>
       </c>
@@ -2357,7 +2367,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2338</v>
       </c>
@@ -2368,7 +2378,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2342</v>
       </c>
@@ -2379,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2343</v>
       </c>
@@ -2390,7 +2400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2344</v>
       </c>
@@ -2401,7 +2411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2345</v>
       </c>
@@ -2412,7 +2422,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2346</v>
       </c>
@@ -2423,7 +2433,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2352</v>
       </c>
@@ -2434,7 +2444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2353</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2354</v>
       </c>
@@ -2456,7 +2466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2355</v>
       </c>
@@ -2467,7 +2477,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2356</v>
       </c>
@@ -2478,7 +2488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2357</v>
       </c>
@@ -2489,7 +2499,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2358</v>
       </c>
@@ -2500,7 +2510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2392</v>
       </c>
@@ -2511,7 +2521,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2393</v>
       </c>
@@ -2522,7 +2532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2394</v>
       </c>
@@ -2533,7 +2543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2395</v>
       </c>
@@ -2544,7 +2554,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2396</v>
       </c>
@@ -2555,7 +2565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2473</v>
       </c>
@@ -2566,7 +2576,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2474</v>
       </c>
@@ -2577,7 +2587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2475</v>
       </c>
@@ -2588,7 +2598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2477</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2478</v>
       </c>
@@ -2610,7 +2620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2622</v>
       </c>
@@ -2621,7 +2631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2624</v>
       </c>
@@ -2632,7 +2642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2625</v>
       </c>
@@ -2643,7 +2653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2626</v>
       </c>
@@ -2654,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2646</v>
       </c>
@@ -2665,7 +2675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2647</v>
       </c>
@@ -2676,7 +2686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2648</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2651</v>
       </c>
@@ -2698,7 +2708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2652</v>
       </c>
@@ -2709,7 +2719,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2655</v>
       </c>
@@ -2720,7 +2730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2656</v>
       </c>
@@ -2731,7 +2741,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2657</v>
       </c>
@@ -2742,7 +2752,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2658</v>
       </c>
@@ -2753,7 +2763,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2901</v>
       </c>
@@ -2764,7 +2774,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2902</v>
       </c>
@@ -2775,7 +2785,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2903</v>
       </c>
@@ -2786,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2920</v>
       </c>
@@ -2797,7 +2807,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2921</v>
       </c>
@@ -2808,7 +2818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2922</v>
       </c>
@@ -2819,7 +2829,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2923</v>
       </c>
@@ -2830,7 +2840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2924</v>
       </c>
@@ -2841,7 +2851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2925</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2926</v>
       </c>
@@ -2863,7 +2873,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2927</v>
       </c>
@@ -2874,7 +2884,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2928</v>
       </c>
@@ -2885,7 +2895,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2929</v>
       </c>
@@ -2896,7 +2906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2931</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2932</v>
       </c>
@@ -2918,7 +2928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2933</v>
       </c>
@@ -2929,7 +2939,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2934</v>
       </c>
@@ -2940,7 +2950,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2935</v>
       </c>
@@ -2951,7 +2961,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2936</v>
       </c>
@@ -2962,7 +2972,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2940</v>
       </c>
@@ -2973,7 +2983,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2942</v>
       </c>
@@ -2981,10 +2991,10 @@
         <v>102</v>
       </c>
       <c r="C150" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2945</v>
       </c>
@@ -2995,7 +3005,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2946</v>
       </c>
@@ -3006,7 +3016,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2948</v>
       </c>
@@ -3014,10 +3024,10 @@
         <v>105</v>
       </c>
       <c r="C153" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2952</v>
       </c>
@@ -3028,7 +3038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2953</v>
       </c>
@@ -3039,7 +3049,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2954</v>
       </c>
@@ -3050,7 +3060,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2962</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2963</v>
       </c>
@@ -3072,7 +3082,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2964</v>
       </c>
@@ -3083,7 +3093,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2966</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2972</v>
       </c>
@@ -3102,10 +3112,10 @@
         <v>266</v>
       </c>
       <c r="C161" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2982</v>
       </c>
@@ -3116,7 +3126,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2983</v>
       </c>
@@ -3127,7 +3137,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3327</v>
       </c>
@@ -3138,7 +3148,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3329</v>
       </c>
@@ -3149,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3382</v>
       </c>
@@ -3168,7 +3178,7 @@
         <v>113</v>
       </c>
       <c r="C167" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -3179,10 +3189,10 @@
         <v>268</v>
       </c>
       <c r="C168" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3388</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3400</v>
       </c>
@@ -3204,7 +3214,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3401</v>
       </c>
@@ -3215,7 +3225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3402</v>
       </c>
@@ -3226,7 +3236,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3404</v>
       </c>
@@ -3237,7 +3247,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3405</v>
       </c>
@@ -3248,7 +3258,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3406</v>
       </c>
@@ -3259,7 +3269,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3407</v>
       </c>
@@ -3270,7 +3280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3408</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3409</v>
       </c>
@@ -3292,7 +3302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3435</v>
       </c>
@@ -3303,7 +3313,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3436</v>
       </c>
@@ -3314,7 +3324,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3437</v>
       </c>
@@ -3325,7 +3335,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3438</v>
       </c>
@@ -3336,7 +3346,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3442</v>
       </c>
@@ -3347,7 +3357,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3444</v>
       </c>
@@ -3358,7 +3368,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3445</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3446</v>
       </c>
@@ -3380,7 +3390,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3447</v>
       </c>
@@ -3391,7 +3401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3454</v>
       </c>
@@ -3402,7 +3412,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3455</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3456</v>
       </c>
@@ -3424,7 +3434,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3458</v>
       </c>
@@ -3435,7 +3445,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3460</v>
       </c>
@@ -3446,7 +3456,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3462</v>
       </c>
@@ -3465,10 +3475,10 @@
         <v>128</v>
       </c>
       <c r="C194" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3464</v>
       </c>
@@ -3479,7 +3489,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3465</v>
       </c>
@@ -3490,7 +3500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3466</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>132</v>
       </c>
       <c r="C198" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
@@ -3520,10 +3530,10 @@
         <v>133</v>
       </c>
       <c r="C199" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3469</v>
       </c>
@@ -3534,7 +3544,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3471</v>
       </c>
@@ -3553,10 +3563,10 @@
         <v>278</v>
       </c>
       <c r="C202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3476</v>
       </c>
@@ -3567,7 +3577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3482</v>
       </c>
@@ -3578,7 +3588,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3483</v>
       </c>
@@ -3589,7 +3599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3487</v>
       </c>
@@ -3600,7 +3610,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3489</v>
       </c>
@@ -3611,7 +3621,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3491</v>
       </c>
@@ -3622,7 +3632,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3492</v>
       </c>
@@ -3633,7 +3643,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3493</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3496</v>
       </c>
@@ -3655,7 +3665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3497</v>
       </c>
@@ -3666,7 +3676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3498</v>
       </c>
@@ -3685,7 +3695,7 @@
         <v>281</v>
       </c>
       <c r="C214" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
@@ -3696,7 +3706,7 @@
         <v>282</v>
       </c>
       <c r="C215" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
@@ -3707,7 +3717,7 @@
         <v>145</v>
       </c>
       <c r="C216" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
@@ -3718,7 +3728,7 @@
         <v>283</v>
       </c>
       <c r="C217" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
@@ -3729,7 +3739,7 @@
         <v>146</v>
       </c>
       <c r="C218" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,7 +3750,7 @@
         <v>147</v>
       </c>
       <c r="C219" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
@@ -3751,7 +3761,7 @@
         <v>148</v>
       </c>
       <c r="C220" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
@@ -3762,7 +3772,7 @@
         <v>149</v>
       </c>
       <c r="C221" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
@@ -3773,7 +3783,7 @@
         <v>150</v>
       </c>
       <c r="C222" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
@@ -3784,7 +3794,7 @@
         <v>284</v>
       </c>
       <c r="C223" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
@@ -3795,7 +3805,7 @@
         <v>151</v>
       </c>
       <c r="C224" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
@@ -3806,7 +3816,7 @@
         <v>152</v>
       </c>
       <c r="C225" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
@@ -3817,7 +3827,7 @@
         <v>153</v>
       </c>
       <c r="C226" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
@@ -3828,7 +3838,7 @@
         <v>154</v>
       </c>
       <c r="C227" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
@@ -3839,7 +3849,7 @@
         <v>155</v>
       </c>
       <c r="C228" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
@@ -3850,7 +3860,7 @@
         <v>156</v>
       </c>
       <c r="C229" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
@@ -3861,7 +3871,7 @@
         <v>157</v>
       </c>
       <c r="C230" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
@@ -3872,7 +3882,7 @@
         <v>158</v>
       </c>
       <c r="C231" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
@@ -3883,7 +3893,7 @@
         <v>285</v>
       </c>
       <c r="C232" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,7 +3904,7 @@
         <v>286</v>
       </c>
       <c r="C233" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
@@ -3905,7 +3915,7 @@
         <v>159</v>
       </c>
       <c r="C234" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
@@ -3916,7 +3926,7 @@
         <v>287</v>
       </c>
       <c r="C235" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
@@ -3927,7 +3937,7 @@
         <v>160</v>
       </c>
       <c r="C236" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
@@ -3938,7 +3948,7 @@
         <v>161</v>
       </c>
       <c r="C237" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
@@ -3949,7 +3959,7 @@
         <v>162</v>
       </c>
       <c r="C238" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
@@ -3960,7 +3970,7 @@
         <v>163</v>
       </c>
       <c r="C239" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
@@ -3971,7 +3981,7 @@
         <v>164</v>
       </c>
       <c r="C240" t="s">
-        <v>201</v>
+        <v>314</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -3982,10 +3992,10 @@
         <v>288</v>
       </c>
       <c r="C241" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>3711</v>
       </c>
@@ -3996,7 +4006,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>3715</v>
       </c>
@@ -4007,7 +4017,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>3716</v>
       </c>
@@ -4018,7 +4028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>3718</v>
       </c>
@@ -4029,7 +4039,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>3721</v>
       </c>
@@ -4040,7 +4050,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>3725</v>
       </c>
@@ -4051,7 +4061,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>3731</v>
       </c>
@@ -4062,7 +4072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>3734</v>
       </c>
@@ -4073,7 +4083,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>3735</v>
       </c>
@@ -4084,7 +4094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>3741</v>
       </c>
@@ -4095,7 +4105,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>3743</v>
       </c>
@@ -4106,7 +4116,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>3751</v>
       </c>
@@ -4117,7 +4127,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>3754</v>
       </c>
@@ -4128,7 +4138,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>3755</v>
       </c>
@@ -4139,7 +4149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>3756</v>
       </c>
@@ -4150,7 +4160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>3757</v>
       </c>
@@ -4161,7 +4171,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>3758</v>
       </c>
@@ -4172,7 +4182,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>3772</v>
       </c>
@@ -4183,7 +4193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>3773</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>3774</v>
       </c>
@@ -4205,7 +4215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>3775</v>
       </c>
@@ -4216,7 +4226,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>3777</v>
       </c>
@@ -4227,7 +4237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>3781</v>
       </c>
@@ -4238,7 +4248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>3782</v>
       </c>
@@ -4249,7 +4259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>3786</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>3821</v>
       </c>
@@ -4271,7 +4281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>3825</v>
       </c>
@@ -4282,7 +4292,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>3826</v>
       </c>
@@ -4293,7 +4303,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>3827</v>
       </c>
@@ -4304,7 +4314,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>3832</v>
       </c>
@@ -4315,7 +4325,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>3835</v>
       </c>
@@ -4326,7 +4336,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>3837</v>
       </c>
@@ -4337,7 +4347,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>3838</v>
       </c>
@@ -4348,7 +4358,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>3841</v>
       </c>
@@ -4359,7 +4369,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>3843</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>3844</v>
       </c>
@@ -4381,7 +4391,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3845</v>
       </c>
@@ -4392,7 +4402,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>3846</v>
       </c>
@@ -4403,7 +4413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>3854</v>
       </c>
@@ -4414,7 +4424,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>3855</v>
       </c>
@@ -4425,7 +4435,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>3856</v>
       </c>
@@ -4436,7 +4446,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>3857</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>3858</v>
       </c>
@@ -4458,7 +4468,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>3861</v>
       </c>
@@ -4469,7 +4479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>3862</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>3863</v>
       </c>
@@ -4491,7 +4501,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>3865</v>
       </c>
@@ -4502,7 +4512,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>3867</v>
       </c>
@@ -4513,7 +4523,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>3868</v>
       </c>
@@ -4524,7 +4534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>3869</v>
       </c>
@@ -4535,7 +4545,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>3873</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>3876</v>
       </c>
@@ -4557,7 +4567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>3877</v>
       </c>
@@ -4568,7 +4578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>3878</v>
       </c>
@@ -4579,7 +4589,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>3885</v>
       </c>
@@ -4590,7 +4600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>3886</v>
       </c>
@@ -4601,7 +4611,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>3889</v>
       </c>
@@ -4612,7 +4622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>3888</v>
       </c>
@@ -4623,7 +4633,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>3891</v>
       </c>
@@ -4634,7 +4644,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>3892</v>
       </c>
@@ -4645,7 +4655,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>3894</v>
       </c>
@@ -4657,6 +4667,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C302">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Cordoba"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
